--- a/data/trans_dic/P12A1_2_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P12A1_2_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con alguna limitación 16-59 años</t>
+          <t>Población con alguna limitación 16-59 años (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>62,22%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>90,66%</t>
+          <t>12,94%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>84,67%</t>
+          <t>11,77%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>75,81%</t>
+          <t>10,89%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>84,17%</t>
+          <t>12,65%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>87,63%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>88,53%</t>
+          <t>10,2%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>65,58%</t>
+          <t>6,68%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>72,3%</t>
+          <t>7,78%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>89,64%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>86,11%</t>
+          <t>11,71%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>70,82%</t>
+          <t>8,22%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>8,71%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>9,83%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>9,76%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>8,25%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>12,21%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>7,66%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>36,49; 85,07</t>
+          <t>3,65; 12,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>72,98; 100,0</t>
+          <t>8,09; 19,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>60,75; 97,28</t>
+          <t>6,47; 19,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>51,05; 93,75</t>
+          <t>5,82; 20,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>59,45; 95,42</t>
+          <t>6,83; 21,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>62,59; 100,0</t>
+          <t>3,24; 14,82</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>64,58; 100,0</t>
+          <t>6,05; 15,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>41,31; 84,43</t>
+          <t>3,62; 10,84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>55,31; 85,53</t>
+          <t>4,54; 12,55</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>75,49; 97,05</t>
+          <t>2,59; 9,76</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>69,73; 95,25</t>
+          <t>6,79; 19,55</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>54,5; 84,4</t>
+          <t>4,49; 13,95</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>5,81; 12,81</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>6,65; 13,47</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>6,66; 13,94</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>4,92; 12,96</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>8,21; 18,61</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>4,43; 11,63</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>53,83%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>41,73%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>43,65%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>51,59%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>52,98%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>65,44%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>53,84%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>61,91%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>53,49%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>48,66%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>46,95%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>57,47%</t>
+          <t>9,87%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>4,04%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>3,96%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>5,21%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>4,58%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>5,65%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>7,72%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>27,68; 78,59</t>
+          <t>2,13; 8,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>19,06; 67,43</t>
+          <t>2,17; 8,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18,76; 64,86</t>
+          <t>3,29; 10,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>21,03; 81,44</t>
+          <t>0,67; 7,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>25,96; 79,86</t>
+          <t>1,63; 8,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>31,49; 90,97</t>
+          <t>1,93; 11,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>30,35; 78,7</t>
+          <t>1,66; 7,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>41,07; 80,65</t>
+          <t>1,63; 6,41</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>34,59; 72,34</t>
+          <t>1,83; 7,9</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>28,31; 67,69</t>
+          <t>3,6; 11,2</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>25,67; 62,82</t>
+          <t>4,14; 12,11</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>37,91; 74,04</t>
+          <t>5,61; 15,74</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>2,28; 6,61</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>2,35; 6,06</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>3,09; 7,69</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>2,81; 7,2</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>3,49; 8,68</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>4,93; 11,65</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>57,96%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>52,29%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>33,89%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>67,87%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>50,77%</t>
+          <t>8,88%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>57,2%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>56,72%</t>
+          <t>5,46%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>50,0%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>53,96%</t>
+          <t>6,25%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>54,76%</t>
+          <t>6,23%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>46,34%</t>
+          <t>7,18%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>59,02%</t>
+          <t>8,93%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>5,29%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>6,32%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>4,74%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>5,7%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>8,08%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>7,76%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>24,15; 88,27</t>
+          <t>2,67; 8,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>29,23; 71,04</t>
+          <t>3,84; 9,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,61; 60,2</t>
+          <t>1,61; 5,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>41,78; 85,09</t>
+          <t>2,82; 8,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>32,13; 67,89</t>
+          <t>6,01; 13,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>40,44; 71,39</t>
+          <t>3,67; 10,98</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>39,82; 70,82</t>
+          <t>3,16; 8,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>33,47; 65,88</t>
+          <t>4,33; 9,59</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>32,74; 69,91</t>
+          <t>3,96; 8,81</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>39,81; 67,39</t>
+          <t>3,94; 9,64</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>27,24; 61,26</t>
+          <t>4,62; 10,94</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>44,49; 71,17</t>
+          <t>5,76; 13,86</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>3,7; 7,54</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>4,73; 8,49</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>3,34; 6,54</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>3,81; 7,94</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>5,95; 11,02</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>5,48; 10,41</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>68,3%</t>
+          <t>8,86%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>65,85%</t>
+          <t>8,06%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>70,4%</t>
+          <t>9,9%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>84,8%</t>
+          <t>12,35%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>64,23%</t>
+          <t>23,69%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>59,48%</t>
+          <t>15,45%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>55,42%</t>
+          <t>10,48%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>88,56%</t>
+          <t>9,24%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>65,92%</t>
+          <t>9,53%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>62,35%</t>
+          <t>16,43%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>62,13%</t>
+          <t>16,04%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>86,19%</t>
+          <t>15,57%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>9,69%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>8,66%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>9,71%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>14,4%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>20,06%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>15,51%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>51,0; 82,91</t>
+          <t>5,93; 12,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>48,3; 79,28</t>
+          <t>5,43; 11,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>54,88; 82,49</t>
+          <t>6,99; 13,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>71,86; 92,81</t>
+          <t>8,54; 16,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>51,14; 76,74</t>
+          <t>18,17; 31,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>46,01; 72,11</t>
+          <t>10,67; 21,34</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>43,1; 68,3</t>
+          <t>7,37; 14,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>76,51; 95,73</t>
+          <t>6,69; 12,91</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>54,02; 75,46</t>
+          <t>6,8; 12,9</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>51,73; 72,01</t>
+          <t>12,57; 21,51</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>52,53; 70,45</t>
+          <t>11,77; 21,78</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>77,5; 92,18</t>
+          <t>11,69; 20,72</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>7,6; 12,53</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>6,64; 10,76</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>7,8; 12,34</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>11,62; 17,45</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>16,38; 24,97</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>12,28; 19,34</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1505,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>54,23%</t>
+          <t>8,78%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>56,36%</t>
+          <t>10,8%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>52,49%</t>
+          <t>11,58%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>60,23%</t>
+          <t>7,75%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>26,72%</t>
+          <t>21,95%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>25,69%</t>
+          <t>21,99%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>30,52%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>40,52%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>39,67%</t>
+          <t>5,95%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>40,85%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>41,91%</t>
+          <t>11,23%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>51,27%</t>
+          <t>11,2%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>6,65%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>7,88%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>8,7%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>7,8%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>16,34%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>16,5%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>37,29; 69,89</t>
+          <t>5,47; 13,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>43,51; 69,51</t>
+          <t>7,49; 14,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>39,35; 66,86</t>
+          <t>7,83; 18,14</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>46,72; 72,18</t>
+          <t>4,78; 11,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>13,61; 42,8</t>
+          <t>16,19; 29,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>15,1; 37,56</t>
+          <t>16,58; 28,64</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>19,15; 45,57</t>
+          <t>2,37; 8,26</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>29,41; 53,06</t>
+          <t>2,8; 7,87</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>29,24; 52,86</t>
+          <t>3,37; 9,26</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>31,43; 50,9</t>
+          <t>4,65; 12,34</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>32,28; 53,32</t>
+          <t>7,49; 15,65</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>42,41; 60,11</t>
+          <t>7,29; 16,07</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>4,66; 9,26</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>5,83; 10,24</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>6,52; 12,17</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>5,4; 10,77</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>12,51; 20,48</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>12,49; 20,5</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1705,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>28,82%</t>
+          <t>5,08%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>7,7%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>12,32%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>14,01%</t>
+          <t>9,36%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>14,91%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>14,31%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>19,02%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>11,84%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>10,65%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>12,16%</t>
+          <t>7,08%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>3,86%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>2,91%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>2,63%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>3,95%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>3,34%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>8,04%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>13,79; 50,66</t>
+          <t>2,49; 9,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,8; 22,17</t>
+          <t>0,38; 4,39</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,55</t>
+          <t>0,0; 4,15</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,15; 23,18</t>
+          <t>1,01; 7,43</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,63; 24,05</t>
+          <t>0,62; 6,96</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,99; 24,0</t>
+          <t>5,32; 15,35</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,72; 25,41</t>
+          <t>1,25; 5,6</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,49; 30,85</t>
+          <t>1,99; 6,82</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>11,34; 30,9</t>
+          <t>2,03; 6,67</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>6,78; 19,22</t>
+          <t>2,0; 9,46</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>5,74; 17,5</t>
+          <t>1,48; 8,56</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>5,81; 21,14</t>
+          <t>3,95; 11,42</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>2,18; 5,98</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>1,69; 4,71</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>1,43; 4,45</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>2,04; 6,7</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>1,78; 6,13</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>5,57; 11,93</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1905,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>51,1%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>50,58%</t>
+          <t>7,25%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>45,53%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>57,79%</t>
+          <t>6,91%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>39,99%</t>
+          <t>12,47%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>38,69%</t>
+          <t>10,94%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>40,18%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>46,78%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>45,05%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>44,39%</t>
+          <t>8,02%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>42,82%</t>
+          <t>9,2%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>52,52%</t>
+          <t>10,11%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>6,34%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>6,55%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>6,66%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>7,48%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>10,83%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>10,52%</t>
         </is>
       </c>
     </row>
@@ -1564,78 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>42,3; 59,78</t>
+          <t>5,23; 8,16</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>42,66; 58,57</t>
+          <t>5,86; 8,72</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>36,38; 53,48</t>
+          <t>5,69; 8,74</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>50,31; 64,91</t>
+          <t>5,36; 8,58</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>33,04; 47,81</t>
+          <t>10,31; 15,17</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>32,51; 45,52</t>
+          <t>9,02; 13,24</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>34,27; 46,99</t>
+          <t>4,94; 7,44</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>40,23; 54,47</t>
+          <t>4,85; 7,04</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>39,32; 50,83</t>
+          <t>5,19; 7,62</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>39,2; 49,95</t>
+          <t>6,61; 9,75</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>37,33; 48,02</t>
+          <t>7,65; 11,13</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>47,01; 57,59</t>
+          <t>8,52; 11,95</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>5,41; 7,32</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>5,7; 7,55</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>5,79; 7,73</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>6,44; 8,65</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>9,48; 12,4</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>9,31; 11,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con alguna limitación 16-59 años (tasa de respuesta: 99,9%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>36731</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>67516</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>60022</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>51320</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>5323</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>3161</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>47808</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>34398</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>39970</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>26912</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>4381</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>3169</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>84538</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>101914</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>99993</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>78233</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>9704</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>6329</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>18303; 61956</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>42191; 102008</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>33008; 99027</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>27443; 95575</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2876; 9217</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1429; 6530</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>28370; 73418</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>18644; 55820</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>23359; 64502</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>12341; 46586</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2541; 7311</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>1730; 5378</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>56435; 124320</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>68910; 139650</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>68222; 142723</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>46705; 122879</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>6529; 14790</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>3663; 9607</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>25834</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>25621</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>36426</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>16315</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2123</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>2767</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>18014</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>16839</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>21447</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>33396</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>3367</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>4485</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>43848</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>42461</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>57873</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>49711</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>5489</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>7253</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>12117; 50821</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>12268; 45216</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>19563; 63023</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>3891; 42568</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>813; 4466</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>936; 5443</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>8584; 36806</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>8282; 32577</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>9444; 40703</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>18189; 56567</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1952; 5716</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>2548; 7154</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>24705; 71762</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>25214; 65043</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>34322; 85371</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>30455; 78099</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>3387; 8423</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>4632; 10945</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>35128</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>41828</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>21481</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>34758</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>5349</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>4076</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>38754</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>46638</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>44580</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>44137</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>3870</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>4898</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>73882</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>88467</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>66060</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>78895</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>9218</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>8974</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>18353; 57279</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>26136; 63349</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>10982; 39054</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>19099; 56483</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3616; 8063</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2231; 6675</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>22464; 60889</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>31133; 68865</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>28231; 62857</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>27887; 68223</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2492; 5899</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>3161; 7601</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>51599; 105277</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>66153; 118755</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>46557; 91186</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>52691; 109858</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>6793; 12573</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>6339; 12038</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>57377</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>52069</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>63113</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>80717</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>13746</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>8726</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>71820</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>62211</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>62915</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>108657</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>8410</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>8255</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>129198</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>114280</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>126027</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>189374</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>22156</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>16981</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>38412; 81169</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>35070; 74337</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>44582; 86495</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>55782; 110571</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>10541; 18009</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>6026; 12052</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>50561; 97143</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>45061; 86953</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>44848; 85159</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>83133; 142245</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>6168; 11420</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>6200; 10986</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>101334; 167005</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>87669; 141944</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>101141; 160037</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>152770; 229435</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>18093; 27579</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>13447; 21183</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>43478</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>54405</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>56996</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>37929</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>9765</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>9862</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>23286</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>24967</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>30665</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>40513</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>5477</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>5198</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>66764</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>79372</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>87661</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>78443</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>15242</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>15060</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>27115; 64720</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>37766; 75086</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>38513; 89251</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>23364; 57668</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>7201; 13131</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>7435; 12846</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>12088; 42030</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>14093; 39581</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>17337; 47723</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>24025; 63773</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>3654; 7632</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>3383; 7456</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>46753; 93032</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>58667; 103096</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>65621; 122615</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>54363; 108356</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>11666; 19095</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>11398; 18705</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>27692</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>8049</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>5193</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>15578</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>1293</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>4290</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>21024</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>27470</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>26983</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>35170</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>2405</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>4511</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>48716</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>35519</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>32176</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>50748</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>3698</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>8801</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>13563; 49630</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>1976; 23053</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 21943</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>5634; 41285</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>291; 3259</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>2441; 7036</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>8972; 40169</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>13798; 47382</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>14094; 46197</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>14613; 69092</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>945; 5455</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>2516; 7271</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>27500; 75531</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>20585; 57453</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>17455; 54395</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>26293; 86182</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>1970; 6773</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>6100; 13067</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>211.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>209.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>190.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>227.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>230.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>226240</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>249488</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>243232</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>236617</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>37599</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>32882</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>220706</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>212524</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>226559</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>288786</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>27909</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>30515</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>446946</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>462012</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>469791</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>525403</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>65508</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>63397</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>180122; 281017</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>201621; 300187</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>196014; 300883</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>183522; 293769</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>31099; 45753</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>27103; 39778</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>178233; 268548</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>175372; 254208</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>187361; 275132</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>238033; 350915</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>23199; 33767</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>25728; 36078</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>381807; 516191</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>402068; 532921</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>408564; 545369</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>452600; 607505</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>57375; 75026</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>56089; 71477</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
